--- a/player_d_dash/defense-dash-lt6_SeasonType_Playoffs_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-lt6_SeasonType_Playoffs_Season_2018-19.xlsx
@@ -2599,17 +2599,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Marcus Morris Sr.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2619,22 +2619,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -2664,17 +2664,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Marcus Morris Sr.</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2684,22 +2684,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>42.6%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -4224,32 +4224,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -4289,32 +4289,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -4484,42 +4484,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Greg Monroe</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>52.4%</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4529,17 +4529,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-11.2</t>
         </is>
       </c>
     </row>
@@ -4549,42 +4549,42 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Greg Monroe</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>52.4%</t>
+          <t>33.9%</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>59.6</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-11.2</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -4744,17 +4744,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4764,17 +4764,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,17 +4829,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -5004,42 +5004,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Ricky Rubio</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>44.7%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-20.6</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5079,12 +5079,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>52.8%</t>
+          <t>29.7%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5119,12 +5119,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-9.3</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -5134,42 +5134,42 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -5199,22 +5199,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ricky Rubio</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>27.9%</t>
+          <t>52.8%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-20.6</t>
+          <t>-9.3</t>
         </is>
       </c>
     </row>
@@ -5329,17 +5329,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>-17.7</t>
         </is>
       </c>
     </row>
@@ -5459,17 +5459,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-17.7</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -6044,22 +6044,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Terrence Ross</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6074,12 +6074,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>34.0%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>20.7</t>
         </is>
       </c>
     </row>
@@ -6109,22 +6109,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Terrence Ross</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>39.0%</t>
+          <t>34.0%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>11.3</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6314,12 +6314,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>-14.3</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6399,12 +6399,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>34.1%</t>
+          <t>28.3%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>64.2</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-14.3</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6574,32 +6574,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>13.9</t>
         </is>
       </c>
     </row>
@@ -6694,17 +6694,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6714,22 +6714,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>57.7</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -6824,42 +6824,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>22.2%</t>
+          <t>36.2%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>13.9</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -7149,42 +7149,42 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>28.2%</t>
+          <t>26.2%</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>-7.6</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tyreke Evans</t>
+          <t>Darren Collison</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7239,17 +7239,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>47.8%</t>
+          <t>28.2%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -7344,37 +7344,37 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Tyreke Evans</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>26.2%</t>
+          <t>47.8%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7394,12 +7394,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>-6.9</t>
         </is>
       </c>
     </row>
@@ -7669,42 +7669,42 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>24.5%</t>
+          <t>46.4%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-21.9</t>
         </is>
       </c>
     </row>
@@ -7734,42 +7734,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>46.4%</t>
+          <t>24.5%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-21.9</t>
+          <t>-13.0</t>
         </is>
       </c>
     </row>
@@ -7864,17 +7864,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7884,22 +7884,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>69.9</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-22.3</t>
+          <t>-9.9</t>
         </is>
       </c>
     </row>
@@ -7994,37 +7994,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>25.6%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-19.8</t>
+          <t>-22.3</t>
         </is>
       </c>
     </row>
@@ -8124,22 +8124,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8149,17 +8149,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>25.6%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>69.9</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-9.9</t>
+          <t>-19.8</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Iman Shumpert</t>
+          <t>Cory Joseph</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -8794,22 +8794,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>29.0%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>72.2</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cory Joseph</t>
+          <t>Iman Shumpert</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -8859,22 +8859,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>29.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>65.6</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>6.6</t>
         </is>
       </c>
     </row>
@@ -9034,32 +9034,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kenneth Faried</t>
+          <t>Jonas Jerebko</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>60.3</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -9099,32 +9099,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Jonas Jerebko</t>
+          <t>Kenneth Faried</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>60.3</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>-10.0</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9254,17 +9254,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>15.4%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-49.6</t>
+          <t>-9.7</t>
         </is>
       </c>
     </row>
@@ -9294,42 +9294,42 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Jacob Evans</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>15.4%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>-49.6</t>
         </is>
       </c>
     </row>
@@ -9359,27 +9359,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Jacob Evans</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9389,12 +9389,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>59.7</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-9.7</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -9554,22 +9554,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Treveon Graham</t>
+          <t>Raymond Felton</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -9584,12 +9584,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-38.7</t>
         </is>
       </c>
     </row>
@@ -9619,17 +9619,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Raymond Felton</t>
+          <t>Michael Carter-Williams</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -9644,17 +9644,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-38.7</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -9684,22 +9684,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Michael Carter-Williams</t>
+          <t>Treveon Graham</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9709,12 +9709,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -10009,42 +10009,42 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-14.7</t>
+          <t>-10.0</t>
         </is>
       </c>
     </row>
@@ -10074,17 +10074,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -10094,22 +10094,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>-29.5</t>
         </is>
       </c>
     </row>
@@ -10139,17 +10139,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10169,12 +10169,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-29.5</t>
+          <t>-51.8</t>
         </is>
       </c>
     </row>
@@ -10204,22 +10204,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10229,17 +10229,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-51.8</t>
+          <t>-29.6</t>
         </is>
       </c>
     </row>
@@ -10269,42 +10269,42 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Wilson Chandler</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>66.4</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-29.6</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -10334,42 +10334,42 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ekpe Udoh</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>-14.7</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Wilson Chandler</t>
+          <t>Ekpe Udoh</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10414,22 +10414,22 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10449,12 +10449,12 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>66.4</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>11.5</t>
         </is>
       </c>
     </row>
@@ -10724,22 +10724,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Kyle Korver</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -10754,12 +10754,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>-35.7</t>
         </is>
       </c>
     </row>
@@ -10789,22 +10789,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Kyle Korver</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10819,12 +10819,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-35.7</t>
+          <t>13.4</t>
         </is>
       </c>
     </row>
@@ -11374,42 +11374,42 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Khyri Thomas</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-59.5</t>
+          <t>41.2</t>
         </is>
       </c>
     </row>
@@ -11439,37 +11439,37 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Theo Pinson</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11489,12 +11489,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>45.4</t>
         </is>
       </c>
     </row>
@@ -11504,22 +11504,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11529,17 +11529,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-6.2</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Gerald Green</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -11579,32 +11579,32 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>90.9</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>60.6</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>39.4</t>
         </is>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Khyri Thomas</t>
+          <t>Jose Calderon</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>41.3</t>
         </is>
       </c>
     </row>
@@ -11699,62 +11699,62 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Jon Leuer</t>
+          <t>Gerald Green</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90.9</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>23.8</t>
         </is>
       </c>
     </row>
@@ -11764,37 +11764,37 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Theo Pinson</t>
+          <t>Jon Leuer</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -11814,12 +11814,12 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>37.1</t>
         </is>
       </c>
     </row>
@@ -11829,22 +11829,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Jose Calderon</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -11864,27 +11864,27 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>-50.0</t>
         </is>
       </c>
     </row>
@@ -11894,42 +11894,42 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>47.7</t>
         </is>
       </c>
     </row>
@@ -11959,17 +11959,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -11979,42 +11979,42 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>60.6</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>-59.5</t>
         </is>
       </c>
     </row>
@@ -12024,22 +12024,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12054,12 +12054,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-21.3</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -12154,22 +12154,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -12184,12 +12184,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-21.3</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Jeremy Lin</t>
+          <t>Jerian Grant</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12564,22 +12564,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>-62.8</t>
         </is>
       </c>
     </row>
@@ -12609,22 +12609,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Jerian Grant</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>62.8</t>
+          <t>60.5</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-62.8</t>
+          <t>-60.5</t>
         </is>
       </c>
     </row>
@@ -12674,42 +12674,42 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Jeremy Lin</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-60.5</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sindarius Thornwell</t>
+          <t>Dante Cunningham</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>37.3</t>
         </is>
       </c>
     </row>
@@ -12869,37 +12869,37 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Amir Johnson</t>
+          <t>Trey Lyles</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -12919,12 +12919,12 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>66.2</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>33.8</t>
         </is>
       </c>
     </row>
@@ -12934,12 +12934,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Dante Cunningham</t>
+          <t>Amir Johnson</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -12949,22 +12949,22 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -12984,12 +12984,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>54.4</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Trey Lyles</t>
+          <t>Sindarius Thornwell</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>66.2</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>35.0</t>
         </is>
       </c>
     </row>
@@ -13194,22 +13194,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Quincy Pondexter</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -13244,12 +13244,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>50.3</t>
         </is>
       </c>
     </row>
@@ -13259,17 +13259,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Quincy Pondexter</t>
+          <t>Jarell Martin</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -13309,12 +13309,12 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>37.0</t>
         </is>
       </c>
     </row>
@@ -13324,22 +13324,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Jarell Martin</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13374,12 +13374,12 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>50.3</t>
         </is>
       </c>
     </row>
@@ -13389,17 +13389,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>45.8</t>
         </is>
       </c>
     </row>
